--- a/python scripts/Last_excel.xlsx
+++ b/python scripts/Last_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ENIX V2-D5\Documents\GitHub\CS449-Project\python scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD847D95-3EC4-40E5-97D5-39490BFFE928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0074D766-A4EE-4062-BB1C-F81C1425132B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Image Name</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>TOTAL AI POINT</t>
+  </si>
+  <si>
+    <t>TOTAL Real POINT</t>
   </si>
 </sst>
 </file>
@@ -268,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -279,7 +282,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9:S41"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,16 +643,16 @@
         <v>60</v>
       </c>
       <c r="D2">
-        <v>66.67</v>
+        <v>60</v>
       </c>
       <c r="E2">
-        <v>36.36</v>
+        <v>40</v>
       </c>
       <c r="F2">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G2">
-        <v>16.670000000000002</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>60</v>
@@ -670,16 +672,16 @@
         <v>20</v>
       </c>
       <c r="D3">
-        <v>55.56</v>
+        <v>50</v>
       </c>
       <c r="E3">
-        <v>18.18</v>
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G3">
-        <v>16.670000000000002</v>
+        <v>20</v>
       </c>
       <c r="H3">
         <v>20</v>
@@ -699,16 +701,16 @@
         <v>50</v>
       </c>
       <c r="D4">
-        <v>77.78</v>
+        <v>70</v>
       </c>
       <c r="E4">
-        <v>27.27</v>
+        <v>30</v>
       </c>
       <c r="F4">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G4">
-        <v>16.670000000000002</v>
+        <v>20</v>
       </c>
       <c r="H4">
         <v>60</v>
@@ -728,16 +730,16 @@
         <v>30</v>
       </c>
       <c r="D5">
-        <v>33.33</v>
+        <v>40</v>
       </c>
       <c r="E5">
-        <v>45.45</v>
+        <v>40</v>
       </c>
       <c r="F5">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G5">
-        <v>66.67</v>
+        <v>60</v>
       </c>
       <c r="H5">
         <v>40</v>
@@ -760,19 +762,19 @@
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>58.334999999999994</v>
+        <v>55</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" si="0"/>
-        <v>31.815000000000001</v>
+        <v>32.5</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="0"/>
-        <v>29.17</v>
+        <v>30</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="0"/>
@@ -794,13 +796,13 @@
         <v>20</v>
       </c>
       <c r="D7">
-        <v>11.11</v>
+        <v>10</v>
       </c>
       <c r="E7">
-        <v>18.18</v>
+        <v>20</v>
       </c>
       <c r="F7">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -811,15 +813,6 @@
       <c r="I7">
         <v>40</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -832,16 +825,16 @@
         <v>70</v>
       </c>
       <c r="D8">
-        <v>55.56</v>
+        <v>60</v>
       </c>
       <c r="E8">
-        <v>45.45</v>
+        <v>40</v>
       </c>
       <c r="F8">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G8">
-        <v>33.33</v>
+        <v>20</v>
       </c>
       <c r="H8">
         <v>80</v>
@@ -849,15 +842,6 @@
       <c r="I8">
         <v>60</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -870,13 +854,13 @@
         <v>60</v>
       </c>
       <c r="D9">
-        <v>66.67</v>
+        <v>60</v>
       </c>
       <c r="E9">
-        <v>27.27</v>
+        <v>30</v>
       </c>
       <c r="F9">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -887,15 +871,6 @@
       <c r="I9">
         <v>60</v>
       </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
     </row>
     <row r="10" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -911,19 +886,19 @@
       </c>
       <c r="D10" s="3">
         <f t="shared" si="1"/>
-        <v>44.446666666666665</v>
+        <v>43.333333333333336</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" si="1"/>
-        <v>30.3</v>
+        <v>30</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="1"/>
-        <v>41.666666666666664</v>
+        <v>40</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="1"/>
-        <v>11.11</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="1"/>
@@ -933,15 +908,15 @@
         <f t="shared" si="1"/>
         <v>53.333333333333336</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -954,16 +929,16 @@
         <v>90</v>
       </c>
       <c r="D11">
-        <v>66.67</v>
+        <v>60</v>
       </c>
       <c r="E11">
-        <v>63.64</v>
+        <v>70</v>
       </c>
       <c r="F11">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G11">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H11">
         <v>100</v>
@@ -971,15 +946,6 @@
       <c r="I11">
         <v>80</v>
       </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -992,16 +958,16 @@
         <v>80</v>
       </c>
       <c r="D12">
-        <v>77.78</v>
+        <v>80</v>
       </c>
       <c r="E12">
-        <v>72.73</v>
+        <v>70</v>
       </c>
       <c r="F12">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G12">
-        <v>83.33</v>
+        <v>80</v>
       </c>
       <c r="H12">
         <v>100</v>
@@ -1009,15 +975,6 @@
       <c r="I12">
         <v>60</v>
       </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
     </row>
     <row r="13" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -1033,19 +990,19 @@
       </c>
       <c r="D13" s="3">
         <f t="shared" si="2"/>
-        <v>72.224999999999994</v>
+        <v>70</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="2"/>
-        <v>68.185000000000002</v>
+        <v>70</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="2"/>
-        <v>37.5</v>
+        <v>40</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" si="2"/>
-        <v>66.664999999999992</v>
+        <v>70</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="2"/>
@@ -1055,15 +1012,15 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1076,16 +1033,16 @@
         <v>60</v>
       </c>
       <c r="D14">
-        <v>44.44</v>
+        <v>50</v>
       </c>
       <c r="E14">
-        <v>63.64</v>
+        <v>60</v>
       </c>
       <c r="F14">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G14">
-        <v>66.67</v>
+        <v>60</v>
       </c>
       <c r="H14">
         <v>60</v>
@@ -1093,15 +1050,6 @@
       <c r="I14">
         <v>60</v>
       </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1114,13 +1062,13 @@
         <v>70</v>
       </c>
       <c r="D15">
-        <v>55.56</v>
+        <v>50</v>
       </c>
       <c r="E15">
-        <v>36.36</v>
+        <v>40</v>
       </c>
       <c r="F15">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1131,15 +1079,6 @@
       <c r="I15">
         <v>80</v>
       </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1152,10 +1091,10 @@
         <v>40</v>
       </c>
       <c r="D16">
-        <v>33.33</v>
+        <v>30</v>
       </c>
       <c r="E16">
-        <v>9.09</v>
+        <v>10</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1169,15 +1108,6 @@
       <c r="I16">
         <v>20</v>
       </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1190,13 +1120,13 @@
         <v>40</v>
       </c>
       <c r="D17">
-        <v>44.44</v>
+        <v>40</v>
       </c>
       <c r="E17">
-        <v>18.18</v>
+        <v>20</v>
       </c>
       <c r="F17">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1207,15 +1137,6 @@
       <c r="I17">
         <v>40</v>
       </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -1228,16 +1149,16 @@
         <v>40</v>
       </c>
       <c r="D18">
-        <v>44.44</v>
+        <v>50</v>
       </c>
       <c r="E18">
-        <v>45.45</v>
+        <v>40</v>
       </c>
       <c r="F18">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G18">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H18">
         <v>40</v>
@@ -1245,15 +1166,6 @@
       <c r="I18">
         <v>40</v>
       </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -1266,16 +1178,16 @@
         <v>40</v>
       </c>
       <c r="D19">
-        <v>44.44</v>
+        <v>50</v>
       </c>
       <c r="E19">
-        <v>45.45</v>
+        <v>40</v>
       </c>
       <c r="F19">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G19">
-        <v>66.67</v>
+        <v>60</v>
       </c>
       <c r="H19">
         <v>60</v>
@@ -1283,15 +1195,6 @@
       <c r="I19">
         <v>20</v>
       </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -1304,16 +1207,16 @@
         <v>70</v>
       </c>
       <c r="D20">
-        <v>66.67</v>
+        <v>70</v>
       </c>
       <c r="E20">
-        <v>63.64</v>
+        <v>60</v>
       </c>
       <c r="F20">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G20">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H20">
         <v>60</v>
@@ -1321,15 +1224,6 @@
       <c r="I20">
         <v>80</v>
       </c>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
     </row>
     <row r="21" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -1345,19 +1239,19 @@
       </c>
       <c r="D21" s="3">
         <f t="shared" si="3"/>
-        <v>47.617142857142859</v>
+        <v>48.571428571428569</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" si="3"/>
-        <v>40.258571428571429</v>
+        <v>38.571428571428569</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" si="3"/>
-        <v>39.285714285714285</v>
+        <v>42.857142857142854</v>
       </c>
       <c r="G21" s="3">
         <f t="shared" si="3"/>
-        <v>33.334285714285713</v>
+        <v>28.571428571428573</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" si="3"/>
@@ -1367,15 +1261,15 @@
         <f t="shared" si="3"/>
         <v>48.571428571428569</v>
       </c>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
@@ -1391,19 +1285,19 @@
       </c>
       <c r="D22" s="6">
         <f t="shared" si="4"/>
-        <v>52.778124999999996</v>
+        <v>51.875</v>
       </c>
       <c r="E22" s="6">
         <f t="shared" si="4"/>
-        <v>39.771250000000002</v>
+        <v>39.375</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" si="4"/>
-        <v>48.4375</v>
+        <v>47.5</v>
       </c>
       <c r="G22" s="6">
         <f t="shared" si="4"/>
-        <v>32.292500000000004</v>
+        <v>30</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" si="4"/>
@@ -1413,15 +1307,6 @@
         <f t="shared" si="4"/>
         <v>48.75</v>
       </c>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -1434,16 +1319,16 @@
         <v>30</v>
       </c>
       <c r="D23">
-        <v>44.44</v>
+        <v>40</v>
       </c>
       <c r="E23">
-        <v>27.27</v>
+        <v>30</v>
       </c>
       <c r="F23">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G23">
-        <v>33.33</v>
+        <v>40</v>
       </c>
       <c r="H23">
         <v>40</v>
@@ -1451,15 +1336,6 @@
       <c r="I23">
         <v>20</v>
       </c>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -1472,16 +1348,16 @@
         <v>30</v>
       </c>
       <c r="D24">
-        <v>44.44</v>
+        <v>40</v>
       </c>
       <c r="E24">
-        <v>27.27</v>
+        <v>30</v>
       </c>
       <c r="F24">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G24">
-        <v>33.33</v>
+        <v>40</v>
       </c>
       <c r="H24">
         <v>40</v>
@@ -1489,15 +1365,6 @@
       <c r="I24">
         <v>20</v>
       </c>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -1510,16 +1377,16 @@
         <v>70</v>
       </c>
       <c r="D25">
-        <v>77.78</v>
+        <v>70</v>
       </c>
       <c r="E25">
-        <v>63.64</v>
+        <v>70</v>
       </c>
       <c r="F25">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G25">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H25">
         <v>60</v>
@@ -1527,17 +1394,8 @@
       <c r="I25">
         <v>80</v>
       </c>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-    </row>
-    <row r="26" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1548,16 +1406,16 @@
         <v>70</v>
       </c>
       <c r="D26">
-        <v>66.67</v>
+        <v>60</v>
       </c>
       <c r="E26">
-        <v>54.55</v>
+        <v>60</v>
       </c>
       <c r="F26">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G26">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H26">
         <v>80</v>
@@ -1565,15 +1423,6 @@
       <c r="I26">
         <v>60</v>
       </c>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -1589,19 +1438,19 @@
       </c>
       <c r="D27" s="3">
         <f t="shared" si="5"/>
-        <v>58.332499999999996</v>
+        <v>52.5</v>
       </c>
       <c r="E27" s="3">
         <f t="shared" si="5"/>
-        <v>43.182500000000005</v>
+        <v>47.5</v>
       </c>
       <c r="F27" s="3">
         <f t="shared" si="5"/>
-        <v>62.5</v>
+        <v>50</v>
       </c>
       <c r="G27" s="3">
         <f t="shared" si="5"/>
-        <v>41.664999999999999</v>
+        <v>50</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" si="5"/>
@@ -1611,15 +1460,6 @@
         <f t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -1632,16 +1472,16 @@
         <v>60</v>
       </c>
       <c r="D28">
-        <v>44.44</v>
+        <v>50</v>
       </c>
       <c r="E28">
-        <v>54.55</v>
+        <v>50</v>
       </c>
       <c r="F28">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G28">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H28">
         <v>60</v>
@@ -1649,15 +1489,6 @@
       <c r="I28">
         <v>60</v>
       </c>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -1670,16 +1501,16 @@
         <v>60</v>
       </c>
       <c r="D29">
-        <v>44.44</v>
+        <v>50</v>
       </c>
       <c r="E29">
-        <v>54.55</v>
+        <v>50</v>
       </c>
       <c r="F29">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G29">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H29">
         <v>60</v>
@@ -1687,15 +1518,6 @@
       <c r="I29">
         <v>60</v>
       </c>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -1708,16 +1530,16 @@
         <v>20</v>
       </c>
       <c r="D30">
-        <v>22.22</v>
+        <v>30</v>
       </c>
       <c r="E30">
-        <v>45.45</v>
+        <v>40</v>
       </c>
       <c r="F30">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G30">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1725,15 +1547,6 @@
       <c r="I30">
         <v>40</v>
       </c>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -1746,16 +1559,16 @@
         <v>60</v>
       </c>
       <c r="D31">
-        <v>66.67</v>
+        <v>60</v>
       </c>
       <c r="E31">
-        <v>72.73</v>
+        <v>80</v>
       </c>
       <c r="F31">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G31">
-        <v>83.33</v>
+        <v>100</v>
       </c>
       <c r="H31">
         <v>60</v>
@@ -1763,17 +1576,8 @@
       <c r="I31">
         <v>60</v>
       </c>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-    </row>
-    <row r="32" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1784,16 +1588,16 @@
         <v>30</v>
       </c>
       <c r="D32">
-        <v>44.44</v>
+        <v>40</v>
       </c>
       <c r="E32">
-        <v>18.18</v>
+        <v>20</v>
       </c>
       <c r="F32">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G32">
-        <v>16.670000000000002</v>
+        <v>20</v>
       </c>
       <c r="H32">
         <v>40</v>
@@ -1801,17 +1605,8 @@
       <c r="I32">
         <v>20</v>
       </c>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>47</v>
       </c>
@@ -1825,19 +1620,19 @@
       </c>
       <c r="D33" s="3">
         <f t="shared" si="6"/>
-        <v>44.441999999999993</v>
+        <v>46</v>
       </c>
       <c r="E33" s="3">
         <f t="shared" si="6"/>
-        <v>49.092000000000006</v>
+        <v>48</v>
       </c>
       <c r="F33" s="3">
         <f t="shared" si="6"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G33" s="3">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H33" s="3">
         <f t="shared" si="6"/>
@@ -1847,17 +1642,8 @@
         <f t="shared" si="6"/>
         <v>48</v>
       </c>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-    </row>
-    <row r="34" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1868,16 +1654,16 @@
         <v>40</v>
       </c>
       <c r="D34">
-        <v>55.56</v>
+        <v>60</v>
       </c>
       <c r="E34">
-        <v>36.36</v>
+        <v>30</v>
       </c>
       <c r="F34">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G34">
-        <v>33.33</v>
+        <v>20</v>
       </c>
       <c r="H34">
         <v>40</v>
@@ -1885,17 +1671,8 @@
       <c r="I34">
         <v>40</v>
       </c>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>48</v>
       </c>
@@ -1909,19 +1686,19 @@
       </c>
       <c r="D35" s="3">
         <f t="shared" si="7"/>
-        <v>55.56</v>
+        <v>60</v>
       </c>
       <c r="E35" s="3">
         <f t="shared" si="7"/>
-        <v>36.36</v>
+        <v>30</v>
       </c>
       <c r="F35" s="3">
         <f t="shared" si="7"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G35" s="3">
         <f t="shared" si="7"/>
-        <v>33.33</v>
+        <v>20</v>
       </c>
       <c r="H35" s="3">
         <f t="shared" si="7"/>
@@ -1931,17 +1708,8 @@
         <f t="shared" si="7"/>
         <v>40</v>
       </c>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1952,16 +1720,16 @@
         <v>40</v>
       </c>
       <c r="D36">
-        <v>33.33</v>
+        <v>30</v>
       </c>
       <c r="E36">
-        <v>36.36</v>
+        <v>40</v>
       </c>
       <c r="F36">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G36">
-        <v>16.670000000000002</v>
+        <v>20</v>
       </c>
       <c r="H36">
         <v>20</v>
@@ -1969,17 +1737,8 @@
       <c r="I36">
         <v>60</v>
       </c>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1990,16 +1749,16 @@
         <v>40</v>
       </c>
       <c r="D37">
-        <v>55.56</v>
+        <v>60</v>
       </c>
       <c r="E37">
-        <v>45.45</v>
+        <v>40</v>
       </c>
       <c r="F37">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G37">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H37">
         <v>40</v>
@@ -2007,17 +1766,8 @@
       <c r="I37">
         <v>40</v>
       </c>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2028,16 +1778,16 @@
         <v>40</v>
       </c>
       <c r="D38">
-        <v>66.67</v>
+        <v>70</v>
       </c>
       <c r="E38">
-        <v>45.45</v>
+        <v>40</v>
       </c>
       <c r="F38">
         <v>100</v>
       </c>
       <c r="G38">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H38">
         <v>40</v>
@@ -2045,17 +1795,8 @@
       <c r="I38">
         <v>40</v>
       </c>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2066,16 +1807,16 @@
         <v>30</v>
       </c>
       <c r="D39">
-        <v>33.33</v>
+        <v>40</v>
       </c>
       <c r="E39">
-        <v>63.64</v>
+        <v>60</v>
       </c>
       <c r="F39">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G39">
-        <v>83.33</v>
+        <v>80</v>
       </c>
       <c r="H39">
         <v>20</v>
@@ -2083,17 +1824,8 @@
       <c r="I39">
         <v>40</v>
       </c>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="8"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2104,16 +1836,16 @@
         <v>20</v>
       </c>
       <c r="D40">
-        <v>11.11</v>
+        <v>20</v>
       </c>
       <c r="E40">
-        <v>54.55</v>
+        <v>50</v>
       </c>
       <c r="F40">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G40">
-        <v>66.67</v>
+        <v>60</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2121,17 +1853,8 @@
       <c r="I40">
         <v>40</v>
       </c>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
-    </row>
-    <row r="41" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2142,16 +1865,16 @@
         <v>40</v>
       </c>
       <c r="D41">
-        <v>55.56</v>
+        <v>60</v>
       </c>
       <c r="E41">
-        <v>54.55</v>
+        <v>50</v>
       </c>
       <c r="F41">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G41">
-        <v>66.67</v>
+        <v>60</v>
       </c>
       <c r="H41">
         <v>40</v>
@@ -2159,17 +1882,8 @@
       <c r="I41">
         <v>40</v>
       </c>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>49</v>
       </c>
@@ -2183,19 +1897,19 @@
       </c>
       <c r="D42" s="3">
         <f t="shared" si="8"/>
-        <v>42.593333333333334</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="E42" s="3">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="F42" s="3">
         <f t="shared" si="8"/>
-        <v>62.5</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="G42" s="3">
         <f t="shared" si="8"/>
-        <v>55.556666666666672</v>
+        <v>50</v>
       </c>
       <c r="H42" s="3">
         <f t="shared" si="8"/>
@@ -2205,19 +1919,10 @@
         <f t="shared" si="8"/>
         <v>43.333333333333336</v>
       </c>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B43" s="6">
         <f>AVERAGE(B23:B26,B28:B32,B34,B36:B41)</f>
@@ -2229,19 +1934,19 @@
       </c>
       <c r="D43" s="6">
         <f t="shared" si="9"/>
-        <v>47.916250000000005</v>
+        <v>48.75</v>
       </c>
       <c r="E43" s="6">
         <f t="shared" si="9"/>
-        <v>47.159375000000004</v>
+        <v>46.25</v>
       </c>
       <c r="F43" s="6">
         <f t="shared" si="9"/>
-        <v>57.8125</v>
+        <v>57.5</v>
       </c>
       <c r="G43" s="6">
         <f t="shared" si="9"/>
-        <v>48.958124999999995</v>
+        <v>47.5</v>
       </c>
       <c r="H43" s="6">
         <f t="shared" si="9"/>
@@ -2251,17 +1956,8 @@
         <f t="shared" si="9"/>
         <v>45</v>
       </c>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>41</v>
       </c>

--- a/python scripts/Last_excel.xlsx
+++ b/python scripts/Last_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ENIX V2-D5\Documents\GitHub\CS449-Project\python scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0074D766-A4EE-4062-BB1C-F81C1425132B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBB2B67-4AAB-4429-B31D-657C2F436B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -586,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1962,19 +1962,24 @@
         <v>41</v>
       </c>
       <c r="B44" s="5">
-        <v>45.62</v>
+        <f>AVERAGE(B36:B41,B34,B28:B32,B23:B26,B14:B20,B11:B12,B7:B9,B2:B5)</f>
+        <v>45.625</v>
       </c>
       <c r="C44" s="5">
+        <f t="shared" ref="C44:F44" si="10">AVERAGE(C36:C41,C34,C28:C32,C23:C26,C14:C20,C11:C12,C7:C9,C2:C5)</f>
         <v>47.5</v>
       </c>
       <c r="D44" s="5">
-        <v>50.35</v>
+        <f t="shared" si="10"/>
+        <v>50.3125</v>
       </c>
       <c r="E44" s="5">
-        <v>43.47</v>
+        <f t="shared" si="10"/>
+        <v>42.8125</v>
       </c>
       <c r="F44" s="5">
-        <v>53.12</v>
+        <f t="shared" si="10"/>
+        <v>52.5</v>
       </c>
       <c r="G44" s="5">
         <v>40.630000000000003</v>

--- a/python scripts/Last_excel.xlsx
+++ b/python scripts/Last_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ENIX V2-D5\Documents\GitHub\CS449-Project\python scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBB2B67-4AAB-4429-B31D-657C2F436B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F5498E-2E4B-471E-A78F-540429B394C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -586,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:F44"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,7 +761,7 @@
         <v>40</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(D2:D5)</f>
         <v>55</v>
       </c>
       <c r="E6" s="3">
